--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3744.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3744.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.228466102740414</v>
+        <v>1.167127132415771</v>
       </c>
       <c r="B1">
-        <v>2.429867816038021</v>
+        <v>5.207211017608643</v>
       </c>
       <c r="C1">
-        <v>4.808182026000527</v>
+        <v>1.529977321624756</v>
       </c>
       <c r="D1">
-        <v>3.167092045498769</v>
+        <v>1.008427143096924</v>
       </c>
       <c r="E1">
-        <v>1.172422965780218</v>
+        <v>0.5507215857505798</v>
       </c>
     </row>
   </sheetData>
